--- a/ig/sd-correctif-cs-include-associated-data/ValueSet-ror-include-associated-data-vs.xlsx
+++ b/ig/sd-correctif-cs-include-associated-data/ValueSet-ror-include-associated-data-vs.xlsx
@@ -8,7 +8,7 @@
   <sheets>
     <sheet name="Metadata" r:id="rId3" sheetId="1"/>
     <sheet name="Include from Include Associat" r:id="rId4" sheetId="2"/>
-    <sheet name="Include from Définition des t" r:id="rId5" sheetId="3"/>
+    <sheet name="Include from Code System afin" r:id="rId5" sheetId="3"/>
   </sheets>
 </workbook>
 </file>
@@ -43,7 +43,7 @@
     <t>Title</t>
   </si>
   <si>
-    <t>Value Set pou étendre le Value Set pour query parameter includeAssociatedData</t>
+    <t>Value Set afin d'étendre le Value Set pour query parameter includeAssociatedData</t>
   </si>
   <si>
     <t>Status</t>
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-01-15T09:47:22+00:00</t>
+    <t>2024-01-15T10:05:53+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
